--- a/ERD/erd_spreadsheet.xlsx
+++ b/ERD/erd_spreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\educom-verrukkulluk-1678802972\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\educom-verrukkulluk-1678802972\ERD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23042A13-F6D5-4032-8E7F-3C710BF6BB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{745B3AED-9368-4EAA-9372-E2C27C16A1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="recept" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,8 @@
     <sheet name="gebruiker" sheetId="2" r:id="rId6"/>
     <sheet name="favoriet" sheetId="11" r:id="rId7"/>
     <sheet name="sterren" sheetId="3" r:id="rId8"/>
-    <sheet name="bezoeker_opmerking" sheetId="4" r:id="rId9"/>
-    <sheet name="bereiding" sheetId="5" r:id="rId10"/>
+    <sheet name="bereiding" sheetId="5" r:id="rId9"/>
+    <sheet name="bezoeker_opmerking" sheetId="4" r:id="rId10"/>
     <sheet name="keuken" sheetId="12" r:id="rId11"/>
     <sheet name="type" sheetId="7" r:id="rId12"/>
   </sheets>
@@ -41,8 +41,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -367,7 +365,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -421,11 +419,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
@@ -742,7 +739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -793,7 +790,7 @@
       <c r="A2" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C2">
@@ -874,19 +871,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -896,11 +893,11 @@
       <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
-        <v>39</v>
+      <c r="C1" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -910,119 +907,44 @@
       <c r="B2" t="s">
         <v>52</v>
       </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="C2" t="s">
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>2</v>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>3</v>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C5">
+      <c r="A5">
         <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C11">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1031,7 +953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1118,7 +1040,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1197,7 +1119,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1236,10 +1158,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -1299,11 +1221,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1599,7 +1521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1638,7 +1560,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1655,19 +1577,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1678,7 +1600,7 @@
       <c r="C2" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>70</v>
       </c>
       <c r="E2">
@@ -1692,7 +1614,7 @@
       <c r="C3" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E3">
@@ -1706,7 +1628,7 @@
       <c r="C4" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>72</v>
       </c>
       <c r="E4">
@@ -1715,16 +1637,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1786,7 +1708,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C5" t="s">
@@ -1799,7 +1721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1874,19 +1796,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1896,11 +1818,11 @@
       <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>34</v>
+      <c r="C1" t="s">
+        <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1910,44 +1832,119 @@
       <c r="B2" t="s">
         <v>52</v>
       </c>
-      <c r="C2" t="s">
-        <v>68</v>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" t="s">
-        <v>67</v>
+      <c r="C3">
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
+      <c r="C4">
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="C5">
         <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
